--- a/task2/task2_stats.xlsx
+++ b/task2/task2_stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Data 1: Dependence  on the length of random array</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>Normalized</t>
   </si>
 </sst>
 </file>
@@ -3740,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,6 +3770,9 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/task2/task2_stats.xlsx
+++ b/task2/task2_stats.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="stats" localSheetId="0">Лист1!$J$44:$M$156</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,19 +21,34 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="stats" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="D:\Projects\A-DS\task2\stats.txt" decimal="," thousands=" " space="1" comma="1" semicolon="1" consecutive="1">
+      <textFields count="13">
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Data 1: Dependence  on the length of random array</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>len</t>
-  </si>
-  <si>
-    <t>N pasteSort</t>
-  </si>
-  <si>
-    <t>N shakerSort</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -39,10 +57,19 @@
     <t>Data 2: Dependence on sorted ratio (len = 50)</t>
   </si>
   <si>
-    <t>Delta</t>
+    <t>Data 1: Dependence  on the length of rand array</t>
   </si>
   <si>
-    <t>Normalized</t>
+    <t>N_cmp PS</t>
+  </si>
+  <si>
+    <t>N_cmp SS</t>
+  </si>
+  <si>
+    <t>N_swap PS</t>
+  </si>
+  <si>
+    <t>N_swap SS</t>
   </si>
 </sst>
 </file>
@@ -112,6 +139,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Dependence pasteSort, shakeSort on number of elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -152,7 +209,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Delta(paste-shaker)</c:v>
+            <c:v>PS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -180,10 +237,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$12</c:f>
+              <c:f>Лист1!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -212,46 +269,64 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$3:$E$12</c:f>
+              <c:f>Лист1!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1599999999999999</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.99</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.01</c:v>
+                  <c:v>59697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5949999999999998</c:v>
+                  <c:v>247835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-55.311799999999998</c:v>
+                  <c:v>6247811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.407499999999999</c:v>
+                  <c:v>24935618</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.6721</c:v>
+                  <c:v>56056880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99098639</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>155358469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225765968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -259,7 +334,140 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D7E4-4094-8F08-11F63A60CE86}"/>
+              <c16:uniqueId val="{00000000-165E-48C0-9F67-2D8061F34F68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12495622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49871236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112113760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198197278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310716938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>451531936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-165E-48C0-9F67-2D8061F34F68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -271,14 +479,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1375119168"/>
-        <c:axId val="1375121664"/>
+        <c:axId val="1450432256"/>
+        <c:axId val="1450432672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1375119168"/>
+        <c:axId val="1450432256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50000"/>
+          <c:max val="30000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -323,7 +531,7 @@
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:t> of elements</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -394,14 +602,16 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375121664"/>
+        <c:crossAx val="1450432672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1375121664"/>
+        <c:axId val="1450432672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="459999999.99999994"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -440,11 +650,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of comparsions</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> and swaps / len</a:t>
+                  <a:t>Number of swaps</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -461,6 +667,565 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1450432256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dependence pasteSort, shakeSort on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> number of elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6252810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24945617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56071879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99118638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>155383468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225795967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D433-415C-93E5-FAAECE432385}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>499500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12497500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49995000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112492500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199990000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312487500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>449985000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D433-415C-93E5-FAAECE432385}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1236374335"/>
+        <c:axId val="1236374751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1236374335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -517,7 +1282,128 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375119168"/>
+        <c:crossAx val="1236374751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1236374751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="470000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num of cmp's</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236374335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -529,6 +1415,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -566,7 +1484,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -651,7 +1569,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>pasteSort</c:v>
+            <c:v>PS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -679,7 +1597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$16:$A$116</c:f>
+              <c:f>Лист1!$A$20:$A$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -991,312 +1909,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$16:$B$116</c:f>
+              <c:f>Лист1!$B$20:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2497</c:v>
+                  <c:v>500454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2497</c:v>
+                  <c:v>500454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2495</c:v>
+                  <c:v>500454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2491</c:v>
+                  <c:v>500432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2485</c:v>
+                  <c:v>500353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2477</c:v>
+                  <c:v>500234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2467</c:v>
+                  <c:v>500234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2455</c:v>
+                  <c:v>499884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2441</c:v>
+                  <c:v>499594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2425</c:v>
+                  <c:v>499281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2407</c:v>
+                  <c:v>498877</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2387</c:v>
+                  <c:v>498406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2365</c:v>
+                  <c:v>497873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2341</c:v>
+                  <c:v>497177</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2315</c:v>
+                  <c:v>496346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2287</c:v>
+                  <c:v>495351</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2257</c:v>
+                  <c:v>494216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2225</c:v>
+                  <c:v>492945</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2191</c:v>
+                  <c:v>491501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2155</c:v>
+                  <c:v>489873</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2117</c:v>
+                  <c:v>488102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2077</c:v>
+                  <c:v>486113</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2035</c:v>
+                  <c:v>483785</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1991</c:v>
+                  <c:v>481198</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1945</c:v>
+                  <c:v>478411</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1897</c:v>
+                  <c:v>475348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1847</c:v>
+                  <c:v>471923</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1795</c:v>
+                  <c:v>468096</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1741</c:v>
+                  <c:v>463846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1685</c:v>
+                  <c:v>459213</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1627</c:v>
+                  <c:v>454255</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1567</c:v>
+                  <c:v>448921</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1507</c:v>
+                  <c:v>443220</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1443</c:v>
+                  <c:v>437140</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1377</c:v>
+                  <c:v>430735</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1309</c:v>
+                  <c:v>423953</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1239</c:v>
+                  <c:v>416783</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1167</c:v>
+                  <c:v>409084</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1093</c:v>
+                  <c:v>400623</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1017</c:v>
+                  <c:v>391637</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>939</c:v>
+                  <c:v>382174</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>859</c:v>
+                  <c:v>372066</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>777</c:v>
+                  <c:v>361322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>693</c:v>
+                  <c:v>349952</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>607</c:v>
+                  <c:v>337842</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>519</c:v>
+                  <c:v>324830</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>429</c:v>
+                  <c:v>310814</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>337</c:v>
+                  <c:v>296030</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>243</c:v>
+                  <c:v>280198</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>147</c:v>
+                  <c:v>263302</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1289</c:v>
+                  <c:v>244632</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1199</c:v>
+                  <c:v>225934</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1119</c:v>
+                  <c:v>208922</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1043</c:v>
+                  <c:v>193186</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>971</c:v>
+                  <c:v>178742</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>905</c:v>
+                  <c:v>165469</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>843</c:v>
+                  <c:v>153146</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>785</c:v>
+                  <c:v>141543</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>731</c:v>
+                  <c:v>130659</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>679</c:v>
+                  <c:v>120367</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>629</c:v>
+                  <c:v>110744</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>581</c:v>
+                  <c:v>101789</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>537</c:v>
+                  <c:v>93443</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>493</c:v>
+                  <c:v>85493</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>449</c:v>
+                  <c:v>77909</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>411</c:v>
+                  <c:v>70821</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>375</c:v>
+                  <c:v>64275</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>341</c:v>
+                  <c:v>58309</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>309</c:v>
+                  <c:v>52792</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>277</c:v>
+                  <c:v>47701</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>247</c:v>
+                  <c:v>43087</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>219</c:v>
+                  <c:v>38817</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>195</c:v>
+                  <c:v>34845</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>175</c:v>
+                  <c:v>31193</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>157</c:v>
+                  <c:v>27802</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>139</c:v>
+                  <c:v>24716</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>121</c:v>
+                  <c:v>21904</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>107</c:v>
+                  <c:v>19360</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97</c:v>
+                  <c:v>17041</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>89</c:v>
+                  <c:v>14881</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>83</c:v>
+                  <c:v>12919</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>77</c:v>
+                  <c:v>11190</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>73</c:v>
+                  <c:v>9607</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>69</c:v>
+                  <c:v>8170</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>65</c:v>
+                  <c:v>6885</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>61</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>57</c:v>
+                  <c:v>4911</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>55</c:v>
+                  <c:v>4059</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53</c:v>
+                  <c:v>3312</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>51</c:v>
+                  <c:v>2767</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>49</c:v>
+                  <c:v>2342</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>49</c:v>
+                  <c:v>1972</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>49</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>49</c:v>
+                  <c:v>1445</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49</c:v>
+                  <c:v>1111</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>49</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>49</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>49</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>49</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +2222,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E7A9-4055-AEDF-D15E2C9ACBD2}"/>
+              <c16:uniqueId val="{00000000-CCF9-43A3-97CF-FE2E23CDF5E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1312,7 +2230,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>shakerSort</c:v>
+            <c:v>SS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1340,7 +2258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$16:$A$116</c:f>
+              <c:f>Лист1!$A$20:$A$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1652,312 +2570,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$16:$C$116</c:f>
+              <c:f>Лист1!$C$20:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3673</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3673</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3671</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3667</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3661</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3653</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3643</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3631</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3617</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3601</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3583</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3563</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3541</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3517</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3491</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3463</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3433</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3401</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3367</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3331</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3293</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3253</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3211</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3167</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3121</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3073</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3023</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2971</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2917</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2861</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2803</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2743</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2683</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2619</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2553</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2485</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2415</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2343</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2269</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2193</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2115</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2035</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1953</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1869</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1783</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1695</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1605</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1513</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1419</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1323</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2465</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2375</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2295</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2219</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2147</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2081</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2019</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1961</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1907</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1855</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1805</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1757</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1713</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1669</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1625</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1587</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1551</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1517</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1485</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1453</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1423</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1395</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1371</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1351</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1333</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1315</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1297</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1283</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1273</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1265</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1259</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1253</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1249</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1245</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1241</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1237</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1233</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1231</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1229</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1227</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1225</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,7 +2883,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7A9-4055-AEDF-D15E2C9ACBD2}"/>
+              <c16:uniqueId val="{00000001-CCF9-43A3-97CF-FE2E23CDF5E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1977,11 +2895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1450432256"/>
-        <c:axId val="1450432672"/>
+        <c:axId val="1830630511"/>
+        <c:axId val="1830630927"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1450432256"/>
+        <c:axId val="1830630511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2024,11 +2942,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sort ratio ( -1 = reverse sorted,</a:t>
+                  <a:t>Sort</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> 1 = sorted)</a:t>
+                  <a:t> ratio</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -2101,14 +3019,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450432672"/>
+        <c:crossAx val="1830630927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1450432672"/>
+        <c:axId val="1830630927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2147,7 +3066,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of comparsions and swaps</a:t>
+                  <a:t>Number pf cmp's</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -2220,7 +3139,1748 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450432256"/>
+        <c:crossAx val="1830630511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dependence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on sort ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$20:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.41999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.39999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.37999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.35999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.33999999999999903</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.31999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.29999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.27999999999999903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.25999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.23999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.19999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.17999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.9999999999999006E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.9999999999999002E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.9999999999999103E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.9999999999999002E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.9999999999999001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0000000000000102E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0000000000000099E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$20:$D$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>499455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>499455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>499354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>499235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>498885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>498595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>498282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>497878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>497407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>496874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>496178</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>495347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>494352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>493217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491946</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>490502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>488874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>487103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>485114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>482786</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>477412</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>474349</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>470924</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>467097</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>462847</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>458214</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>453256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>447922</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>442221</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>436141</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>429736</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>422954</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>415784</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>408085</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>399624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390638</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>381175</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371067</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>360323</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>348953</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>336843</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323831</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>309815</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>295031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>279199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>262303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>243633</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>224935</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>207923</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>192187</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>177743</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>164470</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>152147</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>140544</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>129660</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119368</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>109745</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>100790</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>92444</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>84494</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>76910</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69822</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>63276</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57310</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51793</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46702</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37818</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33846</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30194</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26803</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23717</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20905</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18361</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16042</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13882</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11920</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10191</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8608</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5886</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3912</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4535-4264-8FF8-C5284C63D988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$20:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.41999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.39999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.37999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.35999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.33999999999999903</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.31999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.29999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.27999999999999903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.25999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.23999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.19999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.17999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.9999999999999006E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.9999999999999002E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.9999999999999103E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.9999999999999002E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.9999999999999001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0000000000000102E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0000000000000099E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$20:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>998910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>998910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>998708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>998470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>998470</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>997770</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>997190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>996564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>995756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>994814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>993748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>992356</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>990694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>988704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>986434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>983892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>981004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>977748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>974206</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>970228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>965572</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>954824</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>948698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>941848</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>934194</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>925694</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>916428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>906512</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>895844</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>884442</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>872282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>859472</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>845908</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>831568</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>816170</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>799248</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>781276</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>762350</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>742134</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>720646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>697906</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>673686</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>647662</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>619630</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>590062</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>558398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>524606</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>487266</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>449870</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>415846</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>384374</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>355486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>328940</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>304294</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>281088</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>259320</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>238736</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>219490</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>201580</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>184888</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>168988</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>153820</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>139644</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>126552</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>114620</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103586</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93404</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>84176</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75636</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>67692</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60388</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53606</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47434</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41810</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36722</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32084</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27764</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23840</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20382</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17216</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14342</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11772</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9674</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7824</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2686</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4535-4264-8FF8-C5284C63D988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830630511"/>
+        <c:axId val="1830630927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830630511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sort</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830630927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830630927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> swaps</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830630511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2381,6 +5041,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3413,24 +6153,1056 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3447,20 +7219,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3475,7 +7247,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3741,31 +7579,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C56" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="2" max="5" width="9.625" customWidth="1"/>
+    <col min="10" max="13" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3785,11 +7627,9 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>D3/A3</f>
         <v>0</v>
       </c>
     </row>
@@ -3798,18 +7638,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" si="0">B4-C4</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="1">D4/A4</f>
-        <v>0.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3817,18 +7655,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,18 +7672,16 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>1167</v>
+        <v>680</v>
       </c>
       <c r="C6">
         <v>1225</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-58</v>
+        <v>631</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-1.1599999999999999</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3855,18 +7689,16 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <v>4651</v>
+        <v>2451</v>
       </c>
       <c r="C7">
         <v>4950</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-299</v>
+        <v>2352</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-2.99</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,18 +7706,16 @@
         <v>500</v>
       </c>
       <c r="B8">
-        <v>126255</v>
+        <v>60196</v>
       </c>
       <c r="C8">
         <v>124750</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1505</v>
+        <v>59697</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>3.01</v>
+        <v>119394</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,18 +7723,16 @@
         <v>1000</v>
       </c>
       <c r="B9">
-        <v>505095</v>
+        <v>248834</v>
       </c>
       <c r="C9">
         <v>499500</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>5595</v>
+        <v>247835</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>5.5949999999999998</v>
+        <v>495670</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,18 +7740,16 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>12220941</v>
+        <v>6252810</v>
       </c>
       <c r="C10">
         <v>12497500</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-276559</v>
+        <v>6247811</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-55.311799999999998</v>
+        <v>12495622</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3931,1168 +7757,1828 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>49760925</v>
+        <v>24945617</v>
       </c>
       <c r="C11">
         <v>49995000</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-234075</v>
+        <v>24935618</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-23.407499999999999</v>
+        <v>49871236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="B12">
-        <v>1252258605</v>
+        <v>56071879</v>
       </c>
       <c r="C12">
-        <v>1249975000</v>
+        <v>112492500</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2283605</v>
+        <v>56056880</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>45.6721</v>
+        <v>112113760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20000</v>
+      </c>
+      <c r="B13">
+        <v>99118638</v>
+      </c>
+      <c r="C13">
+        <v>199990000</v>
+      </c>
+      <c r="D13">
+        <v>99098639</v>
+      </c>
+      <c r="E13">
+        <v>198197278</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>25000</v>
+      </c>
+      <c r="B14">
+        <v>155383468</v>
+      </c>
+      <c r="C14">
+        <v>312487500</v>
+      </c>
+      <c r="D14">
+        <v>155358469</v>
+      </c>
+      <c r="E14">
+        <v>310716938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30000</v>
+      </c>
+      <c r="B15">
+        <v>225795967</v>
+      </c>
+      <c r="C15">
+        <v>449985000</v>
+      </c>
+      <c r="D15">
+        <v>225765968</v>
+      </c>
+      <c r="E15">
+        <v>451531936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>-1</v>
       </c>
-      <c r="B16">
-        <v>2497</v>
-      </c>
-      <c r="C16">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B20">
+        <v>500454</v>
+      </c>
+      <c r="C20">
+        <v>499500</v>
+      </c>
+      <c r="D20">
+        <v>499455</v>
+      </c>
+      <c r="E20">
+        <v>998910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>-0.98</v>
       </c>
-      <c r="B17">
-        <v>2497</v>
-      </c>
-      <c r="C17">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B21">
+        <v>500454</v>
+      </c>
+      <c r="C21">
+        <v>499500</v>
+      </c>
+      <c r="D21">
+        <v>499455</v>
+      </c>
+      <c r="E21">
+        <v>998910</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>-0.96</v>
       </c>
-      <c r="B18">
-        <v>2495</v>
-      </c>
-      <c r="C18">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B22">
+        <v>500454</v>
+      </c>
+      <c r="C22">
+        <v>499500</v>
+      </c>
+      <c r="D22">
+        <v>499455</v>
+      </c>
+      <c r="E22">
+        <v>998910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>-0.94</v>
       </c>
-      <c r="B19">
-        <v>2491</v>
-      </c>
-      <c r="C19">
-        <v>3667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B23">
+        <v>500432</v>
+      </c>
+      <c r="C23">
+        <v>499500</v>
+      </c>
+      <c r="D23">
+        <v>499433</v>
+      </c>
+      <c r="E23">
+        <v>998866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>-0.92</v>
       </c>
-      <c r="B20">
-        <v>2485</v>
-      </c>
-      <c r="C20">
-        <v>3661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B24">
+        <v>500353</v>
+      </c>
+      <c r="C24">
+        <v>499500</v>
+      </c>
+      <c r="D24">
+        <v>499354</v>
+      </c>
+      <c r="E24">
+        <v>998708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>-0.9</v>
       </c>
-      <c r="B21">
-        <v>2477</v>
-      </c>
-      <c r="C21">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B25">
+        <v>500234</v>
+      </c>
+      <c r="C25">
+        <v>499500</v>
+      </c>
+      <c r="D25">
+        <v>499235</v>
+      </c>
+      <c r="E25">
+        <v>998470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>-0.88</v>
       </c>
-      <c r="B22">
-        <v>2467</v>
-      </c>
-      <c r="C22">
-        <v>3643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B26">
+        <v>500234</v>
+      </c>
+      <c r="C26">
+        <v>499500</v>
+      </c>
+      <c r="D26">
+        <v>499235</v>
+      </c>
+      <c r="E26">
+        <v>998470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>-0.86</v>
       </c>
-      <c r="B23">
-        <v>2455</v>
-      </c>
-      <c r="C23">
-        <v>3631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B27">
+        <v>499884</v>
+      </c>
+      <c r="C27">
+        <v>499500</v>
+      </c>
+      <c r="D27">
+        <v>498885</v>
+      </c>
+      <c r="E27">
+        <v>997770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>-0.84</v>
       </c>
-      <c r="B24">
-        <v>2441</v>
-      </c>
-      <c r="C24">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B28">
+        <v>499594</v>
+      </c>
+      <c r="C28">
+        <v>499500</v>
+      </c>
+      <c r="D28">
+        <v>498595</v>
+      </c>
+      <c r="E28">
+        <v>997190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>-0.82</v>
       </c>
-      <c r="B25">
-        <v>2425</v>
-      </c>
-      <c r="C25">
-        <v>3601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B29">
+        <v>499281</v>
+      </c>
+      <c r="C29">
+        <v>499500</v>
+      </c>
+      <c r="D29">
+        <v>498282</v>
+      </c>
+      <c r="E29">
+        <v>996564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>-0.8</v>
       </c>
-      <c r="B26">
-        <v>2407</v>
-      </c>
-      <c r="C26">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B30">
+        <v>498877</v>
+      </c>
+      <c r="C30">
+        <v>499500</v>
+      </c>
+      <c r="D30">
+        <v>497878</v>
+      </c>
+      <c r="E30">
+        <v>995756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>-0.78</v>
       </c>
-      <c r="B27">
-        <v>2387</v>
-      </c>
-      <c r="C27">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B31">
+        <v>498406</v>
+      </c>
+      <c r="C31">
+        <v>499500</v>
+      </c>
+      <c r="D31">
+        <v>497407</v>
+      </c>
+      <c r="E31">
+        <v>994814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>-0.76</v>
       </c>
-      <c r="B28">
-        <v>2365</v>
-      </c>
-      <c r="C28">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B32">
+        <v>497873</v>
+      </c>
+      <c r="C32">
+        <v>499500</v>
+      </c>
+      <c r="D32">
+        <v>496874</v>
+      </c>
+      <c r="E32">
+        <v>993748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>-0.74</v>
       </c>
-      <c r="B29">
-        <v>2341</v>
-      </c>
-      <c r="C29">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B33">
+        <v>497177</v>
+      </c>
+      <c r="C33">
+        <v>499500</v>
+      </c>
+      <c r="D33">
+        <v>496178</v>
+      </c>
+      <c r="E33">
+        <v>992356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>-0.72</v>
       </c>
-      <c r="B30">
-        <v>2315</v>
-      </c>
-      <c r="C30">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B34">
+        <v>496346</v>
+      </c>
+      <c r="C34">
+        <v>499500</v>
+      </c>
+      <c r="D34">
+        <v>495347</v>
+      </c>
+      <c r="E34">
+        <v>990694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>-0.7</v>
       </c>
-      <c r="B31">
-        <v>2287</v>
-      </c>
-      <c r="C31">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B35">
+        <v>495351</v>
+      </c>
+      <c r="C35">
+        <v>499500</v>
+      </c>
+      <c r="D35">
+        <v>494352</v>
+      </c>
+      <c r="E35">
+        <v>988704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>-0.68</v>
       </c>
-      <c r="B32">
-        <v>2257</v>
-      </c>
-      <c r="C32">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B36">
+        <v>494216</v>
+      </c>
+      <c r="C36">
+        <v>499500</v>
+      </c>
+      <c r="D36">
+        <v>493217</v>
+      </c>
+      <c r="E36">
+        <v>986434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>-0.66</v>
       </c>
-      <c r="B33">
-        <v>2225</v>
-      </c>
-      <c r="C33">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B37">
+        <v>492945</v>
+      </c>
+      <c r="C37">
+        <v>499500</v>
+      </c>
+      <c r="D37">
+        <v>491946</v>
+      </c>
+      <c r="E37">
+        <v>983892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>-0.64</v>
       </c>
-      <c r="B34">
-        <v>2191</v>
-      </c>
-      <c r="C34">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B38">
+        <v>491501</v>
+      </c>
+      <c r="C38">
+        <v>499500</v>
+      </c>
+      <c r="D38">
+        <v>490502</v>
+      </c>
+      <c r="E38">
+        <v>981004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>-0.62</v>
       </c>
-      <c r="B35">
-        <v>2155</v>
-      </c>
-      <c r="C35">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B39">
+        <v>489873</v>
+      </c>
+      <c r="C39">
+        <v>499500</v>
+      </c>
+      <c r="D39">
+        <v>488874</v>
+      </c>
+      <c r="E39">
+        <v>977748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>-0.6</v>
       </c>
-      <c r="B36">
-        <v>2117</v>
-      </c>
-      <c r="C36">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B40">
+        <v>488102</v>
+      </c>
+      <c r="C40">
+        <v>499500</v>
+      </c>
+      <c r="D40">
+        <v>487103</v>
+      </c>
+      <c r="E40">
+        <v>974206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B37">
-        <v>2077</v>
-      </c>
-      <c r="C37">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B41">
+        <v>486113</v>
+      </c>
+      <c r="C41">
+        <v>499500</v>
+      </c>
+      <c r="D41">
+        <v>485114</v>
+      </c>
+      <c r="E41">
+        <v>970228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B38">
-        <v>2035</v>
-      </c>
-      <c r="C38">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B42">
+        <v>483785</v>
+      </c>
+      <c r="C42">
+        <v>499500</v>
+      </c>
+      <c r="D42">
+        <v>482786</v>
+      </c>
+      <c r="E42">
+        <v>965572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>-0.54</v>
       </c>
-      <c r="B39">
-        <v>1991</v>
-      </c>
-      <c r="C39">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B43">
+        <v>481198</v>
+      </c>
+      <c r="C43">
+        <v>499500</v>
+      </c>
+      <c r="D43">
+        <v>480199</v>
+      </c>
+      <c r="E43">
+        <v>960398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>-0.52</v>
       </c>
-      <c r="B40">
-        <v>1945</v>
-      </c>
-      <c r="C40">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B44">
+        <v>478411</v>
+      </c>
+      <c r="C44">
+        <v>499500</v>
+      </c>
+      <c r="D44">
+        <v>477412</v>
+      </c>
+      <c r="E44">
+        <v>954824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>-0.5</v>
       </c>
-      <c r="B41">
-        <v>1897</v>
-      </c>
-      <c r="C41">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B45">
+        <v>475348</v>
+      </c>
+      <c r="C45">
+        <v>499500</v>
+      </c>
+      <c r="D45">
+        <v>474349</v>
+      </c>
+      <c r="E45">
+        <v>948698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>-0.48</v>
       </c>
-      <c r="B42">
-        <v>1847</v>
-      </c>
-      <c r="C42">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B46">
+        <v>471923</v>
+      </c>
+      <c r="C46">
+        <v>499500</v>
+      </c>
+      <c r="D46">
+        <v>470924</v>
+      </c>
+      <c r="E46">
+        <v>941848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>-0.46</v>
       </c>
-      <c r="B43">
-        <v>1795</v>
-      </c>
-      <c r="C43">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B47">
+        <v>468096</v>
+      </c>
+      <c r="C47">
+        <v>499500</v>
+      </c>
+      <c r="D47">
+        <v>467097</v>
+      </c>
+      <c r="E47">
+        <v>934194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>-0.44</v>
       </c>
-      <c r="B44">
-        <v>1741</v>
-      </c>
-      <c r="C44">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B48">
+        <v>463846</v>
+      </c>
+      <c r="C48">
+        <v>499500</v>
+      </c>
+      <c r="D48">
+        <v>462847</v>
+      </c>
+      <c r="E48">
+        <v>925694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>-0.41999999999999899</v>
       </c>
-      <c r="B45">
-        <v>1685</v>
-      </c>
-      <c r="C45">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B49">
+        <v>459213</v>
+      </c>
+      <c r="C49">
+        <v>499500</v>
+      </c>
+      <c r="D49">
+        <v>458214</v>
+      </c>
+      <c r="E49">
+        <v>916428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>-0.39999999999999902</v>
       </c>
-      <c r="B46">
-        <v>1627</v>
-      </c>
-      <c r="C46">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B50">
+        <v>454255</v>
+      </c>
+      <c r="C50">
+        <v>499500</v>
+      </c>
+      <c r="D50">
+        <v>453256</v>
+      </c>
+      <c r="E50">
+        <v>906512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>-0.37999999999999901</v>
       </c>
-      <c r="B47">
-        <v>1567</v>
-      </c>
-      <c r="C47">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B51">
+        <v>448921</v>
+      </c>
+      <c r="C51">
+        <v>499500</v>
+      </c>
+      <c r="D51">
+        <v>447922</v>
+      </c>
+      <c r="E51">
+        <v>895844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>-0.35999999999999899</v>
       </c>
-      <c r="B48">
-        <v>1507</v>
-      </c>
-      <c r="C48">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B52">
+        <v>443220</v>
+      </c>
+      <c r="C52">
+        <v>499500</v>
+      </c>
+      <c r="D52">
+        <v>442221</v>
+      </c>
+      <c r="E52">
+        <v>884442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>-0.33999999999999903</v>
       </c>
-      <c r="B49">
-        <v>1443</v>
-      </c>
-      <c r="C49">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B53">
+        <v>437140</v>
+      </c>
+      <c r="C53">
+        <v>499500</v>
+      </c>
+      <c r="D53">
+        <v>436141</v>
+      </c>
+      <c r="E53">
+        <v>872282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>-0.31999999999999901</v>
       </c>
-      <c r="B50">
-        <v>1377</v>
-      </c>
-      <c r="C50">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B54">
+        <v>430735</v>
+      </c>
+      <c r="C54">
+        <v>499500</v>
+      </c>
+      <c r="D54">
+        <v>429736</v>
+      </c>
+      <c r="E54">
+        <v>859472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>-0.29999999999999899</v>
       </c>
-      <c r="B51">
-        <v>1309</v>
-      </c>
-      <c r="C51">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B55">
+        <v>423953</v>
+      </c>
+      <c r="C55">
+        <v>499500</v>
+      </c>
+      <c r="D55">
+        <v>422954</v>
+      </c>
+      <c r="E55">
+        <v>845908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>-0.27999999999999903</v>
       </c>
-      <c r="B52">
-        <v>1239</v>
-      </c>
-      <c r="C52">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B56">
+        <v>416783</v>
+      </c>
+      <c r="C56">
+        <v>499500</v>
+      </c>
+      <c r="D56">
+        <v>415784</v>
+      </c>
+      <c r="E56">
+        <v>831568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>-0.25999999999999901</v>
       </c>
-      <c r="B53">
-        <v>1167</v>
-      </c>
-      <c r="C53">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B57">
+        <v>409084</v>
+      </c>
+      <c r="C57">
+        <v>499500</v>
+      </c>
+      <c r="D57">
+        <v>408085</v>
+      </c>
+      <c r="E57">
+        <v>816170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>-0.23999999999999899</v>
       </c>
-      <c r="B54">
-        <v>1093</v>
-      </c>
-      <c r="C54">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B58">
+        <v>400623</v>
+      </c>
+      <c r="C58">
+        <v>499500</v>
+      </c>
+      <c r="D58">
+        <v>399624</v>
+      </c>
+      <c r="E58">
+        <v>799248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>-0.219999999999999</v>
       </c>
-      <c r="B55">
-        <v>1017</v>
-      </c>
-      <c r="C55">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B59">
+        <v>391637</v>
+      </c>
+      <c r="C59">
+        <v>499500</v>
+      </c>
+      <c r="D59">
+        <v>390638</v>
+      </c>
+      <c r="E59">
+        <v>781276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>-0.19999999999999901</v>
       </c>
-      <c r="B56">
-        <v>939</v>
-      </c>
-      <c r="C56">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="B60">
+        <v>382174</v>
+      </c>
+      <c r="C60">
+        <v>499500</v>
+      </c>
+      <c r="D60">
+        <v>381175</v>
+      </c>
+      <c r="E60">
+        <v>762350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>-0.17999999999999899</v>
       </c>
-      <c r="B57">
-        <v>859</v>
-      </c>
-      <c r="C57">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B61">
+        <v>372066</v>
+      </c>
+      <c r="C61">
+        <v>499500</v>
+      </c>
+      <c r="D61">
+        <v>371067</v>
+      </c>
+      <c r="E61">
+        <v>742134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>-0.159999999999999</v>
       </c>
-      <c r="B58">
-        <v>777</v>
-      </c>
-      <c r="C58">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B62">
+        <v>361322</v>
+      </c>
+      <c r="C62">
+        <v>499500</v>
+      </c>
+      <c r="D62">
+        <v>360323</v>
+      </c>
+      <c r="E62">
+        <v>720646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>-0.13999999999999899</v>
       </c>
-      <c r="B59">
-        <v>693</v>
-      </c>
-      <c r="C59">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B63">
+        <v>349952</v>
+      </c>
+      <c r="C63">
+        <v>499500</v>
+      </c>
+      <c r="D63">
+        <v>348953</v>
+      </c>
+      <c r="E63">
+        <v>697906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>-0.119999999999999</v>
       </c>
-      <c r="B60">
-        <v>607</v>
-      </c>
-      <c r="C60">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B64">
+        <v>337842</v>
+      </c>
+      <c r="C64">
+        <v>499500</v>
+      </c>
+      <c r="D64">
+        <v>336843</v>
+      </c>
+      <c r="E64">
+        <v>673686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>-9.9999999999999006E-2</v>
       </c>
-      <c r="B61">
-        <v>519</v>
-      </c>
-      <c r="C61">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B65">
+        <v>324830</v>
+      </c>
+      <c r="C65">
+        <v>499500</v>
+      </c>
+      <c r="D65">
+        <v>323831</v>
+      </c>
+      <c r="E65">
+        <v>647662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>-7.9999999999999002E-2</v>
       </c>
-      <c r="B62">
-        <v>429</v>
-      </c>
-      <c r="C62">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B66">
+        <v>310814</v>
+      </c>
+      <c r="C66">
+        <v>499500</v>
+      </c>
+      <c r="D66">
+        <v>309815</v>
+      </c>
+      <c r="E66">
+        <v>619630</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>-5.9999999999999103E-2</v>
       </c>
-      <c r="B63">
-        <v>337</v>
-      </c>
-      <c r="C63">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B67">
+        <v>296030</v>
+      </c>
+      <c r="C67">
+        <v>499500</v>
+      </c>
+      <c r="D67">
+        <v>295031</v>
+      </c>
+      <c r="E67">
+        <v>590062</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>-3.9999999999999002E-2</v>
       </c>
-      <c r="B64">
-        <v>243</v>
-      </c>
-      <c r="C64">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B68">
+        <v>280198</v>
+      </c>
+      <c r="C68">
+        <v>499500</v>
+      </c>
+      <c r="D68">
+        <v>279199</v>
+      </c>
+      <c r="E68">
+        <v>558398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>-1.9999999999999001E-2</v>
       </c>
-      <c r="B65">
-        <v>147</v>
-      </c>
-      <c r="C65">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B69">
+        <v>263302</v>
+      </c>
+      <c r="C69">
+        <v>499500</v>
+      </c>
+      <c r="D69">
+        <v>262303</v>
+      </c>
+      <c r="E69">
+        <v>524606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>0</v>
       </c>
-      <c r="B66">
-        <v>1289</v>
-      </c>
-      <c r="C66">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="B70">
+        <v>244632</v>
+      </c>
+      <c r="C70">
+        <v>499500</v>
+      </c>
+      <c r="D70">
+        <v>243633</v>
+      </c>
+      <c r="E70">
+        <v>487266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>0.02</v>
       </c>
-      <c r="B67">
-        <v>1199</v>
-      </c>
-      <c r="C67">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="B71">
+        <v>225934</v>
+      </c>
+      <c r="C71">
+        <v>499500</v>
+      </c>
+      <c r="D71">
+        <v>224935</v>
+      </c>
+      <c r="E71">
+        <v>449870</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>0.04</v>
       </c>
-      <c r="B68">
-        <v>1119</v>
-      </c>
-      <c r="C68">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B72">
+        <v>208922</v>
+      </c>
+      <c r="C72">
+        <v>499500</v>
+      </c>
+      <c r="D72">
+        <v>207923</v>
+      </c>
+      <c r="E72">
+        <v>415846</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="B69">
-        <v>1043</v>
-      </c>
-      <c r="C69">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B73">
+        <v>193186</v>
+      </c>
+      <c r="C73">
+        <v>499500</v>
+      </c>
+      <c r="D73">
+        <v>192187</v>
+      </c>
+      <c r="E73">
+        <v>384374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="B70">
-        <v>971</v>
-      </c>
-      <c r="C70">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B74">
+        <v>178742</v>
+      </c>
+      <c r="C74">
+        <v>499500</v>
+      </c>
+      <c r="D74">
+        <v>177743</v>
+      </c>
+      <c r="E74">
+        <v>355486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>0.1</v>
       </c>
-      <c r="B71">
-        <v>905</v>
-      </c>
-      <c r="C71">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B75">
+        <v>165469</v>
+      </c>
+      <c r="C75">
+        <v>499500</v>
+      </c>
+      <c r="D75">
+        <v>164470</v>
+      </c>
+      <c r="E75">
+        <v>328940</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>0.12</v>
       </c>
-      <c r="B72">
-        <v>843</v>
-      </c>
-      <c r="C72">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="B76">
+        <v>153146</v>
+      </c>
+      <c r="C76">
+        <v>499500</v>
+      </c>
+      <c r="D76">
+        <v>152147</v>
+      </c>
+      <c r="E76">
+        <v>304294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B73">
-        <v>785</v>
-      </c>
-      <c r="C73">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B77">
+        <v>141543</v>
+      </c>
+      <c r="C77">
+        <v>499500</v>
+      </c>
+      <c r="D77">
+        <v>140544</v>
+      </c>
+      <c r="E77">
+        <v>281088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>0.16</v>
       </c>
-      <c r="B74">
-        <v>731</v>
-      </c>
-      <c r="C74">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B78">
+        <v>130659</v>
+      </c>
+      <c r="C78">
+        <v>499500</v>
+      </c>
+      <c r="D78">
+        <v>129660</v>
+      </c>
+      <c r="E78">
+        <v>259320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>0.18</v>
       </c>
-      <c r="B75">
-        <v>679</v>
-      </c>
-      <c r="C75">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B79">
+        <v>120367</v>
+      </c>
+      <c r="C79">
+        <v>499500</v>
+      </c>
+      <c r="D79">
+        <v>119368</v>
+      </c>
+      <c r="E79">
+        <v>238736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>0.2</v>
       </c>
-      <c r="B76">
-        <v>629</v>
-      </c>
-      <c r="C76">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="B80">
+        <v>110744</v>
+      </c>
+      <c r="C80">
+        <v>499500</v>
+      </c>
+      <c r="D80">
+        <v>109745</v>
+      </c>
+      <c r="E80">
+        <v>219490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>0.22</v>
       </c>
-      <c r="B77">
-        <v>581</v>
-      </c>
-      <c r="C77">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="B81">
+        <v>101789</v>
+      </c>
+      <c r="C81">
+        <v>499500</v>
+      </c>
+      <c r="D81">
+        <v>100790</v>
+      </c>
+      <c r="E81">
+        <v>201580</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>0.24</v>
       </c>
-      <c r="B78">
-        <v>537</v>
-      </c>
-      <c r="C78">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="B82">
+        <v>93443</v>
+      </c>
+      <c r="C82">
+        <v>499500</v>
+      </c>
+      <c r="D82">
+        <v>92444</v>
+      </c>
+      <c r="E82">
+        <v>184888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>0.26</v>
       </c>
-      <c r="B79">
-        <v>493</v>
-      </c>
-      <c r="C79">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B83">
+        <v>85493</v>
+      </c>
+      <c r="C83">
+        <v>499500</v>
+      </c>
+      <c r="D83">
+        <v>84494</v>
+      </c>
+      <c r="E83">
+        <v>168988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B80">
-        <v>449</v>
-      </c>
-      <c r="C80">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B84">
+        <v>77909</v>
+      </c>
+      <c r="C84">
+        <v>499500</v>
+      </c>
+      <c r="D84">
+        <v>76910</v>
+      </c>
+      <c r="E84">
+        <v>153820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>0.3</v>
       </c>
-      <c r="B81">
-        <v>411</v>
-      </c>
-      <c r="C81">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B85">
+        <v>70821</v>
+      </c>
+      <c r="C85">
+        <v>499500</v>
+      </c>
+      <c r="D85">
+        <v>69822</v>
+      </c>
+      <c r="E85">
+        <v>139644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>0.32</v>
       </c>
-      <c r="B82">
-        <v>375</v>
-      </c>
-      <c r="C82">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B86">
+        <v>64275</v>
+      </c>
+      <c r="C86">
+        <v>499500</v>
+      </c>
+      <c r="D86">
+        <v>63276</v>
+      </c>
+      <c r="E86">
+        <v>126552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>0.34</v>
       </c>
-      <c r="B83">
-        <v>341</v>
-      </c>
-      <c r="C83">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="B87">
+        <v>58309</v>
+      </c>
+      <c r="C87">
+        <v>499500</v>
+      </c>
+      <c r="D87">
+        <v>57310</v>
+      </c>
+      <c r="E87">
+        <v>114620</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>0.36</v>
       </c>
-      <c r="B84">
-        <v>309</v>
-      </c>
-      <c r="C84">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="B88">
+        <v>52792</v>
+      </c>
+      <c r="C88">
+        <v>499500</v>
+      </c>
+      <c r="D88">
+        <v>51793</v>
+      </c>
+      <c r="E88">
+        <v>103586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>0.38</v>
       </c>
-      <c r="B85">
-        <v>277</v>
-      </c>
-      <c r="C85">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="B89">
+        <v>47701</v>
+      </c>
+      <c r="C89">
+        <v>499500</v>
+      </c>
+      <c r="D89">
+        <v>46702</v>
+      </c>
+      <c r="E89">
+        <v>93404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>0.4</v>
       </c>
-      <c r="B86">
-        <v>247</v>
-      </c>
-      <c r="C86">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B90">
+        <v>43087</v>
+      </c>
+      <c r="C90">
+        <v>499500</v>
+      </c>
+      <c r="D90">
+        <v>42088</v>
+      </c>
+      <c r="E90">
+        <v>84176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>0.42</v>
       </c>
-      <c r="B87">
-        <v>219</v>
-      </c>
-      <c r="C87">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B91">
+        <v>38817</v>
+      </c>
+      <c r="C91">
+        <v>499500</v>
+      </c>
+      <c r="D91">
+        <v>37818</v>
+      </c>
+      <c r="E91">
+        <v>75636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>0.44</v>
       </c>
-      <c r="B88">
-        <v>195</v>
-      </c>
-      <c r="C88">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="B92">
+        <v>34845</v>
+      </c>
+      <c r="C92">
+        <v>499500</v>
+      </c>
+      <c r="D92">
+        <v>33846</v>
+      </c>
+      <c r="E92">
+        <v>67692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>0.46</v>
       </c>
-      <c r="B89">
-        <v>175</v>
-      </c>
-      <c r="C89">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="B93">
+        <v>31193</v>
+      </c>
+      <c r="C93">
+        <v>499500</v>
+      </c>
+      <c r="D93">
+        <v>30194</v>
+      </c>
+      <c r="E93">
+        <v>60388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>0.48</v>
       </c>
-      <c r="B90">
-        <v>157</v>
-      </c>
-      <c r="C90">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="B94">
+        <v>27802</v>
+      </c>
+      <c r="C94">
+        <v>499500</v>
+      </c>
+      <c r="D94">
+        <v>26803</v>
+      </c>
+      <c r="E94">
+        <v>53606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>0.5</v>
       </c>
-      <c r="B91">
-        <v>139</v>
-      </c>
-      <c r="C91">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="B95">
+        <v>24716</v>
+      </c>
+      <c r="C95">
+        <v>499500</v>
+      </c>
+      <c r="D95">
+        <v>23717</v>
+      </c>
+      <c r="E95">
+        <v>47434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>0.52</v>
       </c>
-      <c r="B92">
-        <v>121</v>
-      </c>
-      <c r="C92">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="B96">
+        <v>21904</v>
+      </c>
+      <c r="C96">
+        <v>499500</v>
+      </c>
+      <c r="D96">
+        <v>20905</v>
+      </c>
+      <c r="E96">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>0.54</v>
       </c>
-      <c r="B93">
-        <v>107</v>
-      </c>
-      <c r="C93">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B97">
+        <v>19360</v>
+      </c>
+      <c r="C97">
+        <v>499500</v>
+      </c>
+      <c r="D97">
+        <v>18361</v>
+      </c>
+      <c r="E97">
+        <v>36722</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B94">
-        <v>97</v>
-      </c>
-      <c r="C94">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B98">
+        <v>17041</v>
+      </c>
+      <c r="C98">
+        <v>499500</v>
+      </c>
+      <c r="D98">
+        <v>16042</v>
+      </c>
+      <c r="E98">
+        <v>32084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B95">
-        <v>89</v>
-      </c>
-      <c r="C95">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B99">
+        <v>14881</v>
+      </c>
+      <c r="C99">
+        <v>499500</v>
+      </c>
+      <c r="D99">
+        <v>13882</v>
+      </c>
+      <c r="E99">
+        <v>27764</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>0.6</v>
       </c>
-      <c r="B96">
-        <v>83</v>
-      </c>
-      <c r="C96">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B100">
+        <v>12919</v>
+      </c>
+      <c r="C100">
+        <v>499500</v>
+      </c>
+      <c r="D100">
+        <v>11920</v>
+      </c>
+      <c r="E100">
+        <v>23840</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>0.62</v>
       </c>
-      <c r="B97">
-        <v>77</v>
-      </c>
-      <c r="C97">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="B101">
+        <v>11190</v>
+      </c>
+      <c r="C101">
+        <v>499500</v>
+      </c>
+      <c r="D101">
+        <v>10191</v>
+      </c>
+      <c r="E101">
+        <v>20382</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>0.64</v>
       </c>
-      <c r="B98">
-        <v>73</v>
-      </c>
-      <c r="C98">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="B102">
+        <v>9607</v>
+      </c>
+      <c r="C102">
+        <v>499500</v>
+      </c>
+      <c r="D102">
+        <v>8608</v>
+      </c>
+      <c r="E102">
+        <v>17216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>0.66</v>
       </c>
-      <c r="B99">
-        <v>69</v>
-      </c>
-      <c r="C99">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="B103">
+        <v>8170</v>
+      </c>
+      <c r="C103">
+        <v>499500</v>
+      </c>
+      <c r="D103">
+        <v>7171</v>
+      </c>
+      <c r="E103">
+        <v>14342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>0.68</v>
       </c>
-      <c r="B100">
-        <v>65</v>
-      </c>
-      <c r="C100">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B104">
+        <v>6885</v>
+      </c>
+      <c r="C104">
+        <v>499500</v>
+      </c>
+      <c r="D104">
+        <v>5886</v>
+      </c>
+      <c r="E104">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>0.7</v>
       </c>
-      <c r="B101">
-        <v>61</v>
-      </c>
-      <c r="C101">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="B105">
+        <v>5836</v>
+      </c>
+      <c r="C105">
+        <v>499500</v>
+      </c>
+      <c r="D105">
+        <v>4837</v>
+      </c>
+      <c r="E105">
+        <v>9674</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>0.72</v>
       </c>
-      <c r="B102">
-        <v>57</v>
-      </c>
-      <c r="C102">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B106">
+        <v>4911</v>
+      </c>
+      <c r="C106">
+        <v>499500</v>
+      </c>
+      <c r="D106">
+        <v>3912</v>
+      </c>
+      <c r="E106">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>0.74</v>
       </c>
-      <c r="B103">
-        <v>55</v>
-      </c>
-      <c r="C103">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="B107">
+        <v>4059</v>
+      </c>
+      <c r="C107">
+        <v>499500</v>
+      </c>
+      <c r="D107">
+        <v>3060</v>
+      </c>
+      <c r="E107">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>0.76</v>
       </c>
-      <c r="B104">
-        <v>53</v>
-      </c>
-      <c r="C104">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="B108">
+        <v>3312</v>
+      </c>
+      <c r="C108">
+        <v>499500</v>
+      </c>
+      <c r="D108">
+        <v>2313</v>
+      </c>
+      <c r="E108">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>0.78</v>
       </c>
-      <c r="B105">
-        <v>51</v>
-      </c>
-      <c r="C105">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="B109">
+        <v>2767</v>
+      </c>
+      <c r="C109">
+        <v>499500</v>
+      </c>
+      <c r="D109">
+        <v>1768</v>
+      </c>
+      <c r="E109">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>0.8</v>
       </c>
-      <c r="B106">
-        <v>49</v>
-      </c>
-      <c r="C106">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B110">
+        <v>2342</v>
+      </c>
+      <c r="C110">
+        <v>499500</v>
+      </c>
+      <c r="D110">
+        <v>1343</v>
+      </c>
+      <c r="E110">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>0.82</v>
       </c>
-      <c r="B107">
-        <v>49</v>
-      </c>
-      <c r="C107">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="B111">
+        <v>1972</v>
+      </c>
+      <c r="C111">
+        <v>499500</v>
+      </c>
+      <c r="D111">
+        <v>973</v>
+      </c>
+      <c r="E111">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>0.84</v>
       </c>
-      <c r="B108">
-        <v>49</v>
-      </c>
-      <c r="C108">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="B112">
+        <v>1667</v>
+      </c>
+      <c r="C112">
+        <v>499500</v>
+      </c>
+      <c r="D112">
+        <v>668</v>
+      </c>
+      <c r="E112">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>0.86</v>
       </c>
-      <c r="B109">
-        <v>49</v>
-      </c>
-      <c r="C109">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="B113">
+        <v>1445</v>
+      </c>
+      <c r="C113">
+        <v>499500</v>
+      </c>
+      <c r="D113">
+        <v>446</v>
+      </c>
+      <c r="E113">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>0.88</v>
       </c>
-      <c r="B110">
-        <v>49</v>
-      </c>
-      <c r="C110">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="B114">
+        <v>1256</v>
+      </c>
+      <c r="C114">
+        <v>499500</v>
+      </c>
+      <c r="D114">
+        <v>257</v>
+      </c>
+      <c r="E114">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>0.9</v>
       </c>
-      <c r="B111">
-        <v>49</v>
-      </c>
-      <c r="C111">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="B115">
+        <v>1111</v>
+      </c>
+      <c r="C115">
+        <v>499500</v>
+      </c>
+      <c r="D115">
+        <v>112</v>
+      </c>
+      <c r="E115">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>0.92</v>
       </c>
-      <c r="B112">
-        <v>49</v>
-      </c>
-      <c r="C112">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="B116">
+        <v>1057</v>
+      </c>
+      <c r="C116">
+        <v>499500</v>
+      </c>
+      <c r="D116">
+        <v>58</v>
+      </c>
+      <c r="E116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>0.94</v>
       </c>
-      <c r="B113">
-        <v>49</v>
-      </c>
-      <c r="C113">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="B117">
+        <v>1032</v>
+      </c>
+      <c r="C117">
+        <v>499500</v>
+      </c>
+      <c r="D117">
+        <v>33</v>
+      </c>
+      <c r="E117">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>0.96</v>
       </c>
-      <c r="B114">
-        <v>49</v>
-      </c>
-      <c r="C114">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="B118">
+        <v>1012</v>
+      </c>
+      <c r="C118">
+        <v>499500</v>
+      </c>
+      <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>0.98</v>
       </c>
-      <c r="B115">
-        <v>49</v>
-      </c>
-      <c r="C115">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="B119">
+        <v>999</v>
+      </c>
+      <c r="C119">
+        <v>499500</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>1</v>
       </c>
-      <c r="B116">
-        <v>49</v>
-      </c>
-      <c r="C116">
-        <v>1225</v>
+      <c r="B120">
+        <v>999</v>
+      </c>
+      <c r="C120">
+        <v>499500</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>